--- a/public/xls/FINALES.xlsx
+++ b/public/xls/FINALES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34220" yWindow="2280" windowWidth="28160" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="36440" yWindow="2200" windowWidth="28160" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="1275">
   <si>
     <t>codigoBarras</t>
   </si>
@@ -3712,13 +3712,232 @@
   </si>
   <si>
     <t>anios</t>
+  </si>
+  <si>
+    <t>VIP0001</t>
+  </si>
+  <si>
+    <t>Karl P. Blank y Sra.</t>
+  </si>
+  <si>
+    <t>VIP0002</t>
+  </si>
+  <si>
+    <t>Mario Antonio Sandoval y Sra.</t>
+  </si>
+  <si>
+    <t>VIP0003</t>
+  </si>
+  <si>
+    <t>Jorge Tabarini y Sra.</t>
+  </si>
+  <si>
+    <t>VIP0004</t>
+  </si>
+  <si>
+    <t>Christian Blank y Sra.</t>
+  </si>
+  <si>
+    <t>VIP0005</t>
+  </si>
+  <si>
+    <t>Mario Alejandro Sandoval y Sra.</t>
+  </si>
+  <si>
+    <t>VIP0006</t>
+  </si>
+  <si>
+    <t>Felipe Izquierdo</t>
+  </si>
+  <si>
+    <t>VIP0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msc. </t>
+  </si>
+  <si>
+    <t>Miguel Ángel Méndez Zetina</t>
+  </si>
+  <si>
+    <t>Director Editorial</t>
+  </si>
+  <si>
+    <t>VIP0008</t>
+  </si>
+  <si>
+    <t>Jorge Estuardo Colindres Palacios</t>
+  </si>
+  <si>
+    <t>Gerente de Finanzas</t>
+  </si>
+  <si>
+    <t>VIP0009</t>
+  </si>
+  <si>
+    <t>Álvaro Noriega</t>
+  </si>
+  <si>
+    <t>VIP0010</t>
+  </si>
+  <si>
+    <t>Leonardo Rodríguez</t>
+  </si>
+  <si>
+    <t>Gerente de Planificación Digital</t>
+  </si>
+  <si>
+    <t>VIP0011</t>
+  </si>
+  <si>
+    <t>Lucrecia Choy Echeverría</t>
+  </si>
+  <si>
+    <t>Gerente de Desarrollo de Lector</t>
+  </si>
+  <si>
+    <t>VIP0012</t>
+  </si>
+  <si>
+    <t>Haroldo Sánchez</t>
+  </si>
+  <si>
+    <t>Director Noticiero Guatevisión</t>
+  </si>
+  <si>
+    <t>VIP0013</t>
+  </si>
+  <si>
+    <t>Ricardo García Santander</t>
+  </si>
+  <si>
+    <t>Gerente de Producción Guatevisión</t>
+  </si>
+  <si>
+    <t>VIP0014</t>
+  </si>
+  <si>
+    <t>Ricardo Asturias y Sra.</t>
+  </si>
+  <si>
+    <t>COL001</t>
+  </si>
+  <si>
+    <t>PRENSA LIBRE</t>
+  </si>
+  <si>
+    <t>GUATEVISION</t>
+  </si>
+  <si>
+    <t>Maria Luisa Gómez</t>
+  </si>
+  <si>
+    <t>Alejandro Vidal</t>
+  </si>
+  <si>
+    <t>Monica Moran</t>
+  </si>
+  <si>
+    <t>Sabrina Serrano</t>
+  </si>
+  <si>
+    <t>Andres Rosada</t>
+  </si>
+  <si>
+    <t>Jessica Solórzano</t>
+  </si>
+  <si>
+    <t>Jefe de Ventas</t>
+  </si>
+  <si>
+    <t>Territory Manager Cliente Directo</t>
+  </si>
+  <si>
+    <t>Territory Manager Digital</t>
+  </si>
+  <si>
+    <t>Territory Manager Agencias</t>
+  </si>
+  <si>
+    <t>COL002</t>
+  </si>
+  <si>
+    <t>COL003</t>
+  </si>
+  <si>
+    <t>COL004</t>
+  </si>
+  <si>
+    <t>COL005</t>
+  </si>
+  <si>
+    <t>COL006</t>
+  </si>
+  <si>
+    <t>COL007</t>
+  </si>
+  <si>
+    <t>COL008</t>
+  </si>
+  <si>
+    <t>Edwin Castañeda</t>
+  </si>
+  <si>
+    <t>Erick Santizo</t>
+  </si>
+  <si>
+    <t>COL009</t>
+  </si>
+  <si>
+    <t>COL010</t>
+  </si>
+  <si>
+    <t>COL011</t>
+  </si>
+  <si>
+    <t>COL012</t>
+  </si>
+  <si>
+    <t>Sara del Rosario Pacheco Ayala</t>
+  </si>
+  <si>
+    <t>Nancy Marisol Mendez Chacon</t>
+  </si>
+  <si>
+    <t>Brenda Rodríguez de Hernández</t>
+  </si>
+  <si>
+    <t>Badni Jesuá Sagastume</t>
+  </si>
+  <si>
+    <t>Conductor</t>
+  </si>
+  <si>
+    <t>Secretaria de Gerencia</t>
+  </si>
+  <si>
+    <t>Secretaria</t>
+  </si>
+  <si>
+    <t>Asistente Ejecutiva de Presidencia y Gerencia General</t>
+  </si>
+  <si>
+    <t>Analista Programador</t>
+  </si>
+  <si>
+    <t>Jefe de Frontoffice</t>
+  </si>
+  <si>
+    <t>VIP0015</t>
+  </si>
+  <si>
+    <t>Astrid Blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3726,8 +3945,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3746,6 +3972,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3759,10 +3997,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4051,10 +4293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="F252" sqref="F252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11511,10 +11753,600 @@
         <v>1196</v>
       </c>
     </row>
+    <row r="236" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>2</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C236" s="3">
+        <v>20</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>2</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C237" s="3">
+        <v>20</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>2</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C238" s="3">
+        <v>20</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>2</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C239" s="3">
+        <v>20</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>2</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C240" s="3">
+        <v>20</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>1</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C241" s="3">
+        <v>25</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>1</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C242" s="3">
+        <v>25</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>1</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C243" s="3">
+        <v>25</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>1</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C244" s="3">
+        <v>25</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>1</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C245" s="3">
+        <v>25</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>1</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C246" s="3">
+        <v>25</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>1</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C247" s="3">
+        <v>25</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>1</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C248" s="3">
+        <v>25</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>2</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C249" s="3">
+        <v>25</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>1</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C250" s="3">
+        <v>25</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="5">
+        <v>1</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C251" s="5">
+        <v>25</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="5">
+        <v>1</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C252" s="5">
+        <v>25</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="5">
+        <v>1</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C253" s="5">
+        <v>30</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E253" s="5"/>
+      <c r="F253" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="5">
+        <v>1</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C254" s="5">
+        <v>30</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="5">
+        <v>1</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C255" s="5">
+        <v>30</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G255" s="6" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="5">
+        <v>1</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C256" s="5">
+        <v>30</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="5">
+        <v>1</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C257" s="5">
+        <v>30</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G257" s="6" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="5">
+        <v>1</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C258" s="5">
+        <v>30</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G258" s="6" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="5">
+        <v>1</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C259" s="5">
+        <v>30</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G259" s="6" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="5">
+        <v>1</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C260" s="5">
+        <v>30</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="5">
+        <v>1</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C261" s="5">
+        <v>30</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="5">
+        <v>1</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C262" s="5">
+        <v>30</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>1272</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11526,7 +12358,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H18"/>
+      <selection activeCell="H3" sqref="H2:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/public/xls/FINALES.xlsx
+++ b/public/xls/FINALES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36440" yWindow="2200" windowWidth="28160" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENTES" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1281">
   <si>
     <t>codigoBarras</t>
   </si>
@@ -3931,6 +3931,24 @@
   </si>
   <si>
     <t>Astrid Blank</t>
+  </si>
+  <si>
+    <t>EXTR001</t>
+  </si>
+  <si>
+    <t>Eduardo Tessler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lic. Pablo Otoniel Flores &amp; Licda. Silvia Ruiz de Flores </t>
+  </si>
+  <si>
+    <t>Fernando Torre</t>
+  </si>
+  <si>
+    <t>INNOVATION</t>
+  </si>
+  <si>
+    <t>EXTR002</t>
   </si>
 </sst>
 </file>
@@ -3953,7 +3971,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3984,6 +4002,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3997,7 +4021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4005,6 +4029,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4293,10 +4319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J262"/>
+  <dimension ref="A1:J264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="F252" sqref="F252"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4351,7 +4377,7 @@
         <v>123</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -4383,7 +4409,7 @@
         <v>124</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -4415,7 +4441,7 @@
         <v>125</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -4447,7 +4473,7 @@
         <v>126</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -4479,7 +4505,7 @@
         <v>127</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -4511,7 +4537,7 @@
         <v>128</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -4543,7 +4569,7 @@
         <v>129</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
@@ -4575,7 +4601,7 @@
         <v>130</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -4607,7 +4633,7 @@
         <v>131</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -4639,7 +4665,7 @@
         <v>132</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
@@ -4671,7 +4697,7 @@
         <v>133</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
@@ -4703,7 +4729,7 @@
         <v>134</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
@@ -4735,7 +4761,7 @@
         <v>135</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -4767,7 +4793,7 @@
         <v>136</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
@@ -4799,7 +4825,7 @@
         <v>137</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -4831,7 +4857,7 @@
         <v>138</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>17</v>
@@ -4863,7 +4889,7 @@
         <v>139</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
@@ -4895,7 +4921,7 @@
         <v>140</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -4927,7 +4953,7 @@
         <v>141</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
@@ -4959,7 +4985,7 @@
         <v>142</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
@@ -4991,7 +5017,7 @@
         <v>143</v>
       </c>
       <c r="C22" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
@@ -5023,7 +5049,7 @@
         <v>144</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
@@ -5055,7 +5081,7 @@
         <v>145</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
@@ -5087,7 +5113,7 @@
         <v>146</v>
       </c>
       <c r="C25" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>21</v>
@@ -5119,7 +5145,7 @@
         <v>147</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>21</v>
@@ -5151,7 +5177,7 @@
         <v>148</v>
       </c>
       <c r="C27" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>22</v>
@@ -5183,7 +5209,7 @@
         <v>149</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>22</v>
@@ -5215,7 +5241,7 @@
         <v>150</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>22</v>
@@ -5247,7 +5273,7 @@
         <v>151</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>22</v>
@@ -5279,7 +5305,7 @@
         <v>152</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>23</v>
@@ -5311,7 +5337,7 @@
         <v>153</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>23</v>
@@ -5343,7 +5369,7 @@
         <v>154</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>24</v>
@@ -5375,7 +5401,7 @@
         <v>155</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>25</v>
@@ -5407,7 +5433,7 @@
         <v>156</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>25</v>
@@ -5439,7 +5465,7 @@
         <v>157</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>26</v>
@@ -5471,7 +5497,7 @@
         <v>158</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>27</v>
@@ -5503,7 +5529,7 @@
         <v>159</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -5535,7 +5561,7 @@
         <v>160</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>28</v>
@@ -5567,7 +5593,7 @@
         <v>161</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>29</v>
@@ -5599,7 +5625,7 @@
         <v>162</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>29</v>
@@ -5631,7 +5657,7 @@
         <v>163</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>30</v>
@@ -5663,7 +5689,7 @@
         <v>164</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>31</v>
@@ -5695,7 +5721,7 @@
         <v>165</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>31</v>
@@ -5727,7 +5753,7 @@
         <v>166</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>31</v>
@@ -5759,7 +5785,7 @@
         <v>167</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>32</v>
@@ -5791,7 +5817,7 @@
         <v>168</v>
       </c>
       <c r="C47" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>32</v>
@@ -5823,7 +5849,7 @@
         <v>169</v>
       </c>
       <c r="C48" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>33</v>
@@ -5855,7 +5881,7 @@
         <v>170</v>
       </c>
       <c r="C49" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>33</v>
@@ -5887,7 +5913,7 @@
         <v>171</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>34</v>
@@ -5919,7 +5945,7 @@
         <v>172</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>34</v>
@@ -5951,7 +5977,7 @@
         <v>173</v>
       </c>
       <c r="C52" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>35</v>
@@ -5983,7 +6009,7 @@
         <v>174</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>35</v>
@@ -6015,7 +6041,7 @@
         <v>175</v>
       </c>
       <c r="C54" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>35</v>
@@ -6047,7 +6073,7 @@
         <v>176</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>36</v>
@@ -6079,7 +6105,7 @@
         <v>177</v>
       </c>
       <c r="C56" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>36</v>
@@ -6111,7 +6137,7 @@
         <v>178</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>36</v>
@@ -6143,7 +6169,7 @@
         <v>179</v>
       </c>
       <c r="C58" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>36</v>
@@ -6175,7 +6201,7 @@
         <v>180</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>36</v>
@@ -6207,7 +6233,7 @@
         <v>181</v>
       </c>
       <c r="C60" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>37</v>
@@ -6239,7 +6265,7 @@
         <v>182</v>
       </c>
       <c r="C61" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>37</v>
@@ -6271,7 +6297,7 @@
         <v>183</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>38</v>
@@ -6303,7 +6329,7 @@
         <v>184</v>
       </c>
       <c r="C63" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>39</v>
@@ -6335,7 +6361,7 @@
         <v>185</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>39</v>
@@ -6367,7 +6393,7 @@
         <v>186</v>
       </c>
       <c r="C65" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>40</v>
@@ -6399,7 +6425,7 @@
         <v>187</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>41</v>
@@ -6431,7 +6457,7 @@
         <v>188</v>
       </c>
       <c r="C67" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>41</v>
@@ -6463,7 +6489,7 @@
         <v>189</v>
       </c>
       <c r="C68" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>42</v>
@@ -6495,7 +6521,7 @@
         <v>190</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>42</v>
@@ -6527,7 +6553,7 @@
         <v>191</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>42</v>
@@ -6559,7 +6585,7 @@
         <v>192</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>43</v>
@@ -6591,7 +6617,7 @@
         <v>193</v>
       </c>
       <c r="C72" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>43</v>
@@ -6623,7 +6649,7 @@
         <v>194</v>
       </c>
       <c r="C73" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>43</v>
@@ -6655,7 +6681,7 @@
         <v>195</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>44</v>
@@ -6687,7 +6713,7 @@
         <v>196</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>44</v>
@@ -6719,7 +6745,7 @@
         <v>197</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>45</v>
@@ -6751,7 +6777,7 @@
         <v>198</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>46</v>
@@ -6783,7 +6809,7 @@
         <v>199</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>46</v>
@@ -6815,7 +6841,7 @@
         <v>200</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>47</v>
@@ -6847,7 +6873,7 @@
         <v>201</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>47</v>
@@ -6879,7 +6905,7 @@
         <v>202</v>
       </c>
       <c r="C81" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>48</v>
@@ -6911,7 +6937,7 @@
         <v>203</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
@@ -6943,7 +6969,7 @@
         <v>204</v>
       </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>49</v>
@@ -6975,7 +7001,7 @@
         <v>205</v>
       </c>
       <c r="C84" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>49</v>
@@ -7007,7 +7033,7 @@
         <v>206</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>50</v>
@@ -7039,7 +7065,7 @@
         <v>207</v>
       </c>
       <c r="C86" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>51</v>
@@ -7071,7 +7097,7 @@
         <v>208</v>
       </c>
       <c r="C87" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>51</v>
@@ -7103,7 +7129,7 @@
         <v>209</v>
       </c>
       <c r="C88" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>52</v>
@@ -7135,7 +7161,7 @@
         <v>210</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>52</v>
@@ -7167,7 +7193,7 @@
         <v>211</v>
       </c>
       <c r="C90" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>53</v>
@@ -7199,7 +7225,7 @@
         <v>212</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>53</v>
@@ -7231,7 +7257,7 @@
         <v>213</v>
       </c>
       <c r="C92" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>54</v>
@@ -7263,7 +7289,7 @@
         <v>214</v>
       </c>
       <c r="C93" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>54</v>
@@ -7295,7 +7321,7 @@
         <v>215</v>
       </c>
       <c r="C94" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>55</v>
@@ -7327,7 +7353,7 @@
         <v>216</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>56</v>
@@ -7359,7 +7385,7 @@
         <v>217</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>57</v>
@@ -7391,7 +7417,7 @@
         <v>218</v>
       </c>
       <c r="C97" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>58</v>
@@ -7423,7 +7449,7 @@
         <v>219</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>58</v>
@@ -7455,7 +7481,7 @@
         <v>220</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>59</v>
@@ -7487,7 +7513,7 @@
         <v>221</v>
       </c>
       <c r="C100" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>59</v>
@@ -7519,7 +7545,7 @@
         <v>222</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>59</v>
@@ -7551,7 +7577,7 @@
         <v>223</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>60</v>
@@ -7583,7 +7609,7 @@
         <v>224</v>
       </c>
       <c r="C103" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>60</v>
@@ -7615,7 +7641,7 @@
         <v>225</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>61</v>
@@ -7647,7 +7673,7 @@
         <v>226</v>
       </c>
       <c r="C105" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>62</v>
@@ -7679,7 +7705,7 @@
         <v>227</v>
       </c>
       <c r="C106" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>63</v>
@@ -7711,7 +7737,7 @@
         <v>228</v>
       </c>
       <c r="C107" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>63</v>
@@ -7743,7 +7769,7 @@
         <v>229</v>
       </c>
       <c r="C108" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>64</v>
@@ -7775,7 +7801,7 @@
         <v>230</v>
       </c>
       <c r="C109" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>64</v>
@@ -7807,7 +7833,7 @@
         <v>231</v>
       </c>
       <c r="C110" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>65</v>
@@ -7839,7 +7865,7 @@
         <v>232</v>
       </c>
       <c r="C111" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>66</v>
@@ -7871,7 +7897,7 @@
         <v>233</v>
       </c>
       <c r="C112" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>67</v>
@@ -7903,7 +7929,7 @@
         <v>234</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>67</v>
@@ -7935,7 +7961,7 @@
         <v>235</v>
       </c>
       <c r="C114" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>68</v>
@@ -7967,7 +7993,7 @@
         <v>236</v>
       </c>
       <c r="C115" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>69</v>
@@ -7999,7 +8025,7 @@
         <v>237</v>
       </c>
       <c r="C116" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>70</v>
@@ -8031,7 +8057,7 @@
         <v>238</v>
       </c>
       <c r="C117" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>70</v>
@@ -8063,7 +8089,7 @@
         <v>239</v>
       </c>
       <c r="C118" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>71</v>
@@ -8095,7 +8121,7 @@
         <v>240</v>
       </c>
       <c r="C119" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>71</v>
@@ -8127,7 +8153,7 @@
         <v>241</v>
       </c>
       <c r="C120" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>71</v>
@@ -8159,7 +8185,7 @@
         <v>242</v>
       </c>
       <c r="C121" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>72</v>
@@ -8191,7 +8217,7 @@
         <v>243</v>
       </c>
       <c r="C122" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>72</v>
@@ -8223,7 +8249,7 @@
         <v>244</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>73</v>
@@ -8255,7 +8281,7 @@
         <v>245</v>
       </c>
       <c r="C124" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>73</v>
@@ -8287,7 +8313,7 @@
         <v>246</v>
       </c>
       <c r="C125" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>73</v>
@@ -8319,7 +8345,7 @@
         <v>247</v>
       </c>
       <c r="C126" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>74</v>
@@ -8351,7 +8377,7 @@
         <v>248</v>
       </c>
       <c r="C127" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>75</v>
@@ -8383,7 +8409,7 @@
         <v>249</v>
       </c>
       <c r="C128" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>75</v>
@@ -8415,7 +8441,7 @@
         <v>250</v>
       </c>
       <c r="C129" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>76</v>
@@ -8447,7 +8473,7 @@
         <v>251</v>
       </c>
       <c r="C130" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>76</v>
@@ -8479,7 +8505,7 @@
         <v>252</v>
       </c>
       <c r="C131" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>77</v>
@@ -8511,7 +8537,7 @@
         <v>253</v>
       </c>
       <c r="C132" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>78</v>
@@ -8543,7 +8569,7 @@
         <v>254</v>
       </c>
       <c r="C133" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>78</v>
@@ -8575,7 +8601,7 @@
         <v>255</v>
       </c>
       <c r="C134" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>79</v>
@@ -8607,7 +8633,7 @@
         <v>256</v>
       </c>
       <c r="C135" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>79</v>
@@ -8639,7 +8665,7 @@
         <v>257</v>
       </c>
       <c r="C136" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>80</v>
@@ -8671,7 +8697,7 @@
         <v>258</v>
       </c>
       <c r="C137" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>80</v>
@@ -8703,7 +8729,7 @@
         <v>259</v>
       </c>
       <c r="C138" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>81</v>
@@ -8735,7 +8761,7 @@
         <v>260</v>
       </c>
       <c r="C139" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>81</v>
@@ -8767,7 +8793,7 @@
         <v>261</v>
       </c>
       <c r="C140" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>81</v>
@@ -8799,7 +8825,7 @@
         <v>262</v>
       </c>
       <c r="C141" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>82</v>
@@ -8831,7 +8857,7 @@
         <v>263</v>
       </c>
       <c r="C142" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>83</v>
@@ -8863,7 +8889,7 @@
         <v>264</v>
       </c>
       <c r="C143" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>83</v>
@@ -8895,7 +8921,7 @@
         <v>265</v>
       </c>
       <c r="C144" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>84</v>
@@ -8927,7 +8953,7 @@
         <v>266</v>
       </c>
       <c r="C145" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>84</v>
@@ -8959,7 +8985,7 @@
         <v>267</v>
       </c>
       <c r="C146" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>85</v>
@@ -8991,7 +9017,7 @@
         <v>268</v>
       </c>
       <c r="C147" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>85</v>
@@ -9023,7 +9049,7 @@
         <v>269</v>
       </c>
       <c r="C148" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>85</v>
@@ -9055,7 +9081,7 @@
         <v>270</v>
       </c>
       <c r="C149" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>86</v>
@@ -9087,7 +9113,7 @@
         <v>271</v>
       </c>
       <c r="C150" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>87</v>
@@ -9119,7 +9145,7 @@
         <v>272</v>
       </c>
       <c r="C151" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>87</v>
@@ -9151,7 +9177,7 @@
         <v>273</v>
       </c>
       <c r="C152" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>88</v>
@@ -9183,7 +9209,7 @@
         <v>274</v>
       </c>
       <c r="C153" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>88</v>
@@ -9215,7 +9241,7 @@
         <v>275</v>
       </c>
       <c r="C154" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>89</v>
@@ -9247,7 +9273,7 @@
         <v>276</v>
       </c>
       <c r="C155" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>90</v>
@@ -9279,7 +9305,7 @@
         <v>277</v>
       </c>
       <c r="C156" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>90</v>
@@ -9311,7 +9337,7 @@
         <v>278</v>
       </c>
       <c r="C157" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>91</v>
@@ -9343,7 +9369,7 @@
         <v>279</v>
       </c>
       <c r="C158" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>92</v>
@@ -9375,7 +9401,7 @@
         <v>280</v>
       </c>
       <c r="C159" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>92</v>
@@ -9407,7 +9433,7 @@
         <v>281</v>
       </c>
       <c r="C160" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>92</v>
@@ -9439,7 +9465,7 @@
         <v>282</v>
       </c>
       <c r="C161" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>93</v>
@@ -9471,7 +9497,7 @@
         <v>283</v>
       </c>
       <c r="C162" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>94</v>
@@ -9503,7 +9529,7 @@
         <v>284</v>
       </c>
       <c r="C163" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>94</v>
@@ -9535,7 +9561,7 @@
         <v>285</v>
       </c>
       <c r="C164" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>95</v>
@@ -9567,7 +9593,7 @@
         <v>286</v>
       </c>
       <c r="C165" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>95</v>
@@ -9599,7 +9625,7 @@
         <v>287</v>
       </c>
       <c r="C166" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>96</v>
@@ -9631,7 +9657,7 @@
         <v>288</v>
       </c>
       <c r="C167" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>96</v>
@@ -9663,7 +9689,7 @@
         <v>289</v>
       </c>
       <c r="C168" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>97</v>
@@ -9695,7 +9721,7 @@
         <v>290</v>
       </c>
       <c r="C169" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>97</v>
@@ -9727,7 +9753,7 @@
         <v>291</v>
       </c>
       <c r="C170" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>97</v>
@@ -9759,7 +9785,7 @@
         <v>292</v>
       </c>
       <c r="C171" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>98</v>
@@ -9791,7 +9817,7 @@
         <v>293</v>
       </c>
       <c r="C172" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>98</v>
@@ -9823,7 +9849,7 @@
         <v>294</v>
       </c>
       <c r="C173" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>99</v>
@@ -9855,7 +9881,7 @@
         <v>295</v>
       </c>
       <c r="C174" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>100</v>
@@ -9884,7 +9910,7 @@
         <v>296</v>
       </c>
       <c r="C175" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>101</v>
@@ -9916,7 +9942,7 @@
         <v>297</v>
       </c>
       <c r="C176" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>101</v>
@@ -9948,7 +9974,7 @@
         <v>298</v>
       </c>
       <c r="C177" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>101</v>
@@ -9980,7 +10006,7 @@
         <v>299</v>
       </c>
       <c r="C178" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>102</v>
@@ -10012,7 +10038,7 @@
         <v>300</v>
       </c>
       <c r="C179" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>103</v>
@@ -10044,7 +10070,7 @@
         <v>301</v>
       </c>
       <c r="C180" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>103</v>
@@ -10076,7 +10102,7 @@
         <v>302</v>
       </c>
       <c r="C181" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>104</v>
@@ -10108,7 +10134,7 @@
         <v>303</v>
       </c>
       <c r="C182" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>104</v>
@@ -10140,7 +10166,7 @@
         <v>304</v>
       </c>
       <c r="C183" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>105</v>
@@ -10172,7 +10198,7 @@
         <v>305</v>
       </c>
       <c r="C184" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>105</v>
@@ -10204,7 +10230,7 @@
         <v>306</v>
       </c>
       <c r="C185" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>106</v>
@@ -10236,7 +10262,7 @@
         <v>307</v>
       </c>
       <c r="C186" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>106</v>
@@ -10268,7 +10294,7 @@
         <v>308</v>
       </c>
       <c r="C187" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>107</v>
@@ -10300,7 +10326,7 @@
         <v>309</v>
       </c>
       <c r="C188" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>107</v>
@@ -10332,7 +10358,7 @@
         <v>310</v>
       </c>
       <c r="C189" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>107</v>
@@ -10364,7 +10390,7 @@
         <v>311</v>
       </c>
       <c r="C190" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>108</v>
@@ -10396,7 +10422,7 @@
         <v>312</v>
       </c>
       <c r="C191" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>108</v>
@@ -10428,7 +10454,7 @@
         <v>313</v>
       </c>
       <c r="C192" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>108</v>
@@ -10460,7 +10486,7 @@
         <v>314</v>
       </c>
       <c r="C193" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>109</v>
@@ -10492,7 +10518,7 @@
         <v>315</v>
       </c>
       <c r="C194" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>110</v>
@@ -10524,7 +10550,7 @@
         <v>316</v>
       </c>
       <c r="C195" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>110</v>
@@ -10556,7 +10582,7 @@
         <v>317</v>
       </c>
       <c r="C196" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>111</v>
@@ -10588,7 +10614,7 @@
         <v>318</v>
       </c>
       <c r="C197" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>111</v>
@@ -10620,7 +10646,7 @@
         <v>319</v>
       </c>
       <c r="C198" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>112</v>
@@ -10652,7 +10678,7 @@
         <v>320</v>
       </c>
       <c r="C199" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>112</v>
@@ -10684,7 +10710,7 @@
         <v>321</v>
       </c>
       <c r="C200" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>113</v>
@@ -10716,7 +10742,7 @@
         <v>322</v>
       </c>
       <c r="C201" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>113</v>
@@ -10748,7 +10774,7 @@
         <v>323</v>
       </c>
       <c r="C202" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>114</v>
@@ -10780,7 +10806,7 @@
         <v>324</v>
       </c>
       <c r="C203" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>114</v>
@@ -10812,7 +10838,7 @@
         <v>325</v>
       </c>
       <c r="C204" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>115</v>
@@ -10844,7 +10870,7 @@
         <v>326</v>
       </c>
       <c r="C205" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>115</v>
@@ -10876,7 +10902,7 @@
         <v>327</v>
       </c>
       <c r="C206" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>116</v>
@@ -10908,7 +10934,7 @@
         <v>328</v>
       </c>
       <c r="C207" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>116</v>
@@ -10940,7 +10966,7 @@
         <v>329</v>
       </c>
       <c r="C208" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>117</v>
@@ -10972,7 +10998,7 @@
         <v>330</v>
       </c>
       <c r="C209" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>118</v>
@@ -11004,7 +11030,7 @@
         <v>331</v>
       </c>
       <c r="C210" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>119</v>
@@ -11036,7 +11062,7 @@
         <v>332</v>
       </c>
       <c r="C211" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>119</v>
@@ -11068,7 +11094,7 @@
         <v>333</v>
       </c>
       <c r="C212" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>120</v>
@@ -11100,7 +11126,7 @@
         <v>334</v>
       </c>
       <c r="C213" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>121</v>
@@ -11132,7 +11158,7 @@
         <v>335</v>
       </c>
       <c r="C214" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>121</v>
@@ -11164,7 +11190,7 @@
         <v>336</v>
       </c>
       <c r="C215" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>122</v>
@@ -11196,7 +11222,7 @@
         <v>337</v>
       </c>
       <c r="C216" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>122</v>
@@ -11228,7 +11254,7 @@
         <v>892</v>
       </c>
       <c r="C217" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>896</v>
@@ -11257,7 +11283,7 @@
         <v>893</v>
       </c>
       <c r="C218" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>897</v>
@@ -11286,7 +11312,7 @@
         <v>1116</v>
       </c>
       <c r="C219" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>1113</v>
@@ -11315,7 +11341,7 @@
         <v>1121</v>
       </c>
       <c r="C220" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>1113</v>
@@ -11344,7 +11370,7 @@
         <v>1127</v>
       </c>
       <c r="C221" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>1124</v>
@@ -11373,7 +11399,7 @@
         <v>1132</v>
       </c>
       <c r="C222" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>21</v>
@@ -11402,7 +11428,7 @@
         <v>1137</v>
       </c>
       <c r="C223" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>1134</v>
@@ -11431,7 +11457,7 @@
         <v>1143</v>
       </c>
       <c r="C224" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>1140</v>
@@ -11460,7 +11486,7 @@
         <v>1147</v>
       </c>
       <c r="C225" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>1140</v>
@@ -11489,7 +11515,7 @@
         <v>1153</v>
       </c>
       <c r="C226" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>1150</v>
@@ -11518,7 +11544,7 @@
         <v>1159</v>
       </c>
       <c r="C227" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>1156</v>
@@ -11547,7 +11573,7 @@
         <v>1164</v>
       </c>
       <c r="C228" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>1161</v>
@@ -11570,13 +11596,13 @@
     </row>
     <row r="229" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>1169</v>
       </c>
       <c r="C229" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>1166</v>
@@ -11585,7 +11611,7 @@
         <v>339</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>1165</v>
+        <v>1277</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>569</v>
@@ -11605,7 +11631,7 @@
         <v>1174</v>
       </c>
       <c r="C230" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>1171</v>
@@ -11634,7 +11660,7 @@
         <v>1179</v>
       </c>
       <c r="C231" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>1176</v>
@@ -11663,7 +11689,7 @@
         <v>1184</v>
       </c>
       <c r="C232" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>1181</v>
@@ -11692,7 +11718,7 @@
         <v>1189</v>
       </c>
       <c r="C233" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>896</v>
@@ -11718,7 +11744,7 @@
         <v>1195</v>
       </c>
       <c r="C234" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>1192</v>
@@ -11741,7 +11767,7 @@
         <v>1199</v>
       </c>
       <c r="C235" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>1197</v>
@@ -11871,7 +11897,7 @@
         <v>1212</v>
       </c>
       <c r="C241" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>1238</v>
@@ -11895,7 +11921,7 @@
         <v>1214</v>
       </c>
       <c r="C242" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>1238</v>
@@ -11919,7 +11945,7 @@
         <v>1218</v>
       </c>
       <c r="C243" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>1238</v>
@@ -11943,7 +11969,7 @@
         <v>1221</v>
       </c>
       <c r="C244" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>1238</v>
@@ -11967,7 +11993,7 @@
         <v>1223</v>
       </c>
       <c r="C245" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>1238</v>
@@ -11991,7 +12017,7 @@
         <v>1226</v>
       </c>
       <c r="C246" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>1238</v>
@@ -12063,7 +12089,7 @@
         <v>1235</v>
       </c>
       <c r="C249" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>1238</v>
@@ -12085,7 +12111,7 @@
         <v>1273</v>
       </c>
       <c r="C250" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>1238</v>
@@ -12341,6 +12367,46 @@
       </c>
       <c r="G262" s="6" t="s">
         <v>1272</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="7">
+        <v>1</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C263" s="7">
+        <v>35</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="7">
+        <v>1</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C264" s="7">
+        <v>35</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E264" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>1278</v>
       </c>
     </row>
   </sheetData>
